--- a/storage/reports/grades/a7633846-e620-42d0-88e7-e86e4c8d14e2.xlsx
+++ b/storage/reports/grades/a7633846-e620-42d0-88e7-e86e4c8d14e2.xlsx
@@ -397,36 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Fila</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Columna</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Observación</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Parcial2</v>
-      </c>
-      <c r="C2" t="str">
-        <v>No se puede cambiar Parcial2, el parcial se encuentra bloqueado</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>